--- a/QC_vs_signal/mmc1-QC.xlsx
+++ b/QC_vs_signal/mmc1-QC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab56cbb8c691d7fc/A MoBi/4. FS/Data Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0838bc80ef1dafdf/Desktop/Heidelberg/Universität/4. FS/Bioinfo Projekt/Bioinfo_project_VS_Code/REAL_FORKED_abT-Tact-cells-Team2/REAL_FORKED_abT-Tact-cells-Team2/QC_vs_signal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B962CD0C-6852-460D-8EEC-19AC86E43C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{B962CD0C-6852-460D-8EEC-19AC86E43C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29AAF8DD-06E2-40DD-AF58-2B0A1B4CE2B7}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SortedPopulations" sheetId="1" r:id="rId1"/>
@@ -2719,13 +2719,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>132</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>147</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>162</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>168</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>172</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>177</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>178</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>184</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>206</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>211</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>215</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>218</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>222</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>226</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>227</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>232</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>235</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>236</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>238</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>239</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>241</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>242</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>248</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>249</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>253</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>254</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>257</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>261</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>262</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>265</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>266</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>0.93400000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>269</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0.93400000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>270</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>273</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>274</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>280</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>281</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>284</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>285</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>288</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>289</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>291</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>292</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>294</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>295</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>297</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>298</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>303</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>304</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>307</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>308</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>311</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>312</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>315</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>316</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>319</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>325</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>326</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>330</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>331</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>334</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>335</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>336</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>343</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>344</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>345</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>349</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>350</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>351</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>357</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>358</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>362</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>363</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>367</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>368</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>369</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>370</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>374</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>375</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>379</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>380</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>382</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>383</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>388</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>389</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>393</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>394</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>397</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>398</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>404</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>405</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>408</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>409</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>412</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>413</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>416</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>417</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>420</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>421</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>428</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>429</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>433</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>434</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>438</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>439</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>443</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>444</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>448</v>
       </c>
@@ -10196,11 +10196,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="20.9296875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" customWidth="1"/>
+    <col min="10" max="10" width="22.53125" customWidth="1"/>
+    <col min="11" max="11" width="13.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>629</v>
       </c>
@@ -10232,7 +10247,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10264,7 +10279,7 @@
         <v>4641976</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -10296,7 +10311,7 @@
         <v>1984953</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +10343,7 @@
         <v>3030056</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -10360,7 +10375,7 @@
         <v>3709788</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10392,7 +10407,7 @@
         <v>3824397</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -10424,7 +10439,7 @@
         <v>2108030</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -10456,7 +10471,7 @@
         <v>3634427</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -10488,7 +10503,7 @@
         <v>3144758</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>592</v>
       </c>
@@ -10520,7 +10535,7 @@
         <v>3484943</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>592</v>
       </c>
@@ -10552,7 +10567,7 @@
         <v>3393329</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>592</v>
       </c>
@@ -10584,7 +10599,7 @@
         <v>9330719</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>592</v>
       </c>
@@ -10616,7 +10631,7 @@
         <v>4996242</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>592</v>
       </c>
@@ -10648,7 +10663,7 @@
         <v>4770100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>592</v>
       </c>
@@ -10680,7 +10695,7 @@
         <v>4530132</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>592</v>
       </c>
@@ -10712,7 +10727,7 @@
         <v>4198268</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>592</v>
       </c>
@@ -10744,7 +10759,7 @@
         <v>3892146</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>592</v>
       </c>
@@ -10776,7 +10791,7 @@
         <v>3818863</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>592</v>
       </c>
@@ -10808,7 +10823,7 @@
         <v>3908671</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>592</v>
       </c>
@@ -10840,7 +10855,7 @@
         <v>4206839</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>592</v>
       </c>
@@ -10872,7 +10887,7 @@
         <v>4834494</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>592</v>
       </c>
@@ -10904,7 +10919,7 @@
         <v>3699659</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>592</v>
       </c>
@@ -10936,7 +10951,7 @@
         <v>2653187</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -10968,7 +10983,7 @@
         <v>3576872</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -11000,7 +11015,7 @@
         <v>4150656</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>592</v>
       </c>
@@ -11032,7 +11047,7 @@
         <v>3538505</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>592</v>
       </c>
@@ -11064,7 +11079,7 @@
         <v>2831253</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>592</v>
       </c>
@@ -11096,7 +11111,7 @@
         <v>4158847</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>592</v>
       </c>
@@ -11128,7 +11143,7 @@
         <v>2828363</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -11160,7 +11175,7 @@
         <v>4808490</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -11192,7 +11207,7 @@
         <v>2687680</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -11224,7 +11239,7 @@
         <v>4444154</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -11256,7 +11271,7 @@
         <v>1697843</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -11288,7 +11303,7 @@
         <v>1769853</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -11320,7 +11335,7 @@
         <v>3117343</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -11352,7 +11367,7 @@
         <v>3917802</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -11384,7 +11399,7 @@
         <v>2709459</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -11416,7 +11431,7 @@
         <v>3127739</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -11448,7 +11463,7 @@
         <v>1960543</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -11480,7 +11495,7 @@
         <v>2340962</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -11512,7 +11527,7 @@
         <v>1547400</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -11544,7 +11559,7 @@
         <v>1851473</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -11576,7 +11591,7 @@
         <v>2986314</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -11608,7 +11623,7 @@
         <v>3876989</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -11640,7 +11655,7 @@
         <v>2774205</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -11672,7 +11687,7 @@
         <v>2890752</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -11704,7 +11719,7 @@
         <v>3992668</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -11736,7 +11751,7 @@
         <v>2875228</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -11768,7 +11783,7 @@
         <v>4525633</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -11800,7 +11815,7 @@
         <v>2881958</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -11832,7 +11847,7 @@
         <v>2657525</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -11864,7 +11879,7 @@
         <v>2921128</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -11896,7 +11911,7 @@
         <v>1796471</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -11928,7 +11943,7 @@
         <v>2629712</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -11960,7 +11975,7 @@
         <v>4624742</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -11992,7 +12007,7 @@
         <v>1933670</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -12024,7 +12039,7 @@
         <v>2727142</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -12056,7 +12071,7 @@
         <v>3604032</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -12088,7 +12103,7 @@
         <v>2791173</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -12120,7 +12135,7 @@
         <v>4522907</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -12152,7 +12167,7 @@
         <v>2655929</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -12184,7 +12199,7 @@
         <v>4123408</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -12216,7 +12231,7 @@
         <v>2529122</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -12248,7 +12263,7 @@
         <v>3561913</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -12280,7 +12295,7 @@
         <v>1988903</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -12312,7 +12327,7 @@
         <v>1532965</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -12344,7 +12359,7 @@
         <v>3573954</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -12376,7 +12391,7 @@
         <v>2484109</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -12408,7 +12423,7 @@
         <v>3362794</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -12440,7 +12455,7 @@
         <v>2448497</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -12472,7 +12487,7 @@
         <v>4073264</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -12504,7 +12519,7 @@
         <v>2549815</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -12536,7 +12551,7 @@
         <v>2248259</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -12568,7 +12583,7 @@
         <v>4042171</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -12600,7 +12615,7 @@
         <v>1333785</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -12632,7 +12647,7 @@
         <v>1803634</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -12664,7 +12679,7 @@
         <v>2575621</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -12696,7 +12711,7 @@
         <v>2813423</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -12728,7 +12743,7 @@
         <v>2272608</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -12760,7 +12775,7 @@
         <v>1606662</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -12792,7 +12807,7 @@
         <v>2529386</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -12824,7 +12839,7 @@
         <v>1724500</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -12856,7 +12871,7 @@
         <v>4161646</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -12888,7 +12903,7 @@
         <v>2968196</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -12920,7 +12935,7 @@
         <v>3599206</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -12952,7 +12967,7 @@
         <v>3891653</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -12984,7 +12999,7 @@
         <v>3544816</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -13016,7 +13031,7 @@
         <v>2576091</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>202</v>
       </c>
@@ -13048,7 +13063,7 @@
         <v>2499442</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>229</v>
       </c>
@@ -13080,7 +13095,7 @@
         <v>3599881</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>229</v>
       </c>
@@ -13112,7 +13127,7 @@
         <v>4015301</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>229</v>
       </c>
@@ -13144,7 +13159,7 @@
         <v>2759791</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>229</v>
       </c>
@@ -13176,7 +13191,7 @@
         <v>2464087</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>229</v>
       </c>
@@ -13208,7 +13223,7 @@
         <v>3989864</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>229</v>
       </c>
@@ -13240,7 +13255,7 @@
         <v>2407367</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>244</v>
       </c>
@@ -13272,7 +13287,7 @@
         <v>3095077</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -13304,7 +13319,7 @@
         <v>4076740</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>244</v>
       </c>
@@ -13336,7 +13351,7 @@
         <v>1841102</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>244</v>
       </c>
@@ -13368,7 +13383,7 @@
         <v>4490560</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>244</v>
       </c>
@@ -13400,7 +13415,7 @@
         <v>3705171</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>244</v>
       </c>
@@ -13432,7 +13447,7 @@
         <v>3598818</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>244</v>
       </c>
@@ -13464,7 +13479,7 @@
         <v>2900303</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>244</v>
       </c>
@@ -13496,7 +13511,7 @@
         <v>2655688</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>244</v>
       </c>
@@ -13528,7 +13543,7 @@
         <v>1555722</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>244</v>
       </c>
@@ -13560,7 +13575,7 @@
         <v>4774525</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>244</v>
       </c>
@@ -13592,7 +13607,7 @@
         <v>2969965</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>244</v>
       </c>
@@ -13624,7 +13639,7 @@
         <v>3998314</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>244</v>
       </c>
@@ -13656,7 +13671,7 @@
         <v>2187145</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>276</v>
       </c>
@@ -13688,7 +13703,7 @@
         <v>2549911</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>276</v>
       </c>
@@ -13720,7 +13735,7 @@
         <v>2378066</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>276</v>
       </c>
@@ -13752,7 +13767,7 @@
         <v>3820080</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>276</v>
       </c>
@@ -13784,7 +13799,7 @@
         <v>2702696</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>276</v>
       </c>
@@ -13816,7 +13831,7 @@
         <v>2736445</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>276</v>
       </c>
@@ -13848,7 +13863,7 @@
         <v>3390907</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>276</v>
       </c>
@@ -13880,7 +13895,7 @@
         <v>4115865</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -13912,7 +13927,7 @@
         <v>1983753</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>276</v>
       </c>
@@ -13944,7 +13959,7 @@
         <v>2815233</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>276</v>
       </c>
@@ -13976,7 +13991,7 @@
         <v>3155478</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>276</v>
       </c>
@@ -14008,7 +14023,7 @@
         <v>3040128</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>300</v>
       </c>
@@ -14040,7 +14055,7 @@
         <v>3465336</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>300</v>
       </c>
@@ -14072,7 +14087,7 @@
         <v>1731442</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>300</v>
       </c>
@@ -14104,7 +14119,7 @@
         <v>2586930</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>300</v>
       </c>
@@ -14136,7 +14151,7 @@
         <v>4278239</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>300</v>
       </c>
@@ -14168,7 +14183,7 @@
         <v>2751792</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>300</v>
       </c>
@@ -14200,7 +14215,7 @@
         <v>3219292</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -14232,7 +14247,7 @@
         <v>4163739</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -14264,7 +14279,7 @@
         <v>1616142</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>112</v>
       </c>
@@ -14296,7 +14311,7 @@
         <v>3948687</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -14328,7 +14343,7 @@
         <v>2356285</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -14360,7 +14375,7 @@
         <v>4516791</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>112</v>
       </c>
@@ -14392,7 +14407,7 @@
         <v>3235905</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>112</v>
       </c>
@@ -14424,7 +14439,7 @@
         <v>2708372</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>112</v>
       </c>
@@ -14456,7 +14471,7 @@
         <v>2162017</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>338</v>
       </c>
@@ -14488,7 +14503,7 @@
         <v>2625169</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>338</v>
       </c>
@@ -14520,7 +14535,7 @@
         <v>2446066</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>338</v>
       </c>
@@ -14552,7 +14567,7 @@
         <v>1108508</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>338</v>
       </c>
@@ -14584,7 +14599,7 @@
         <v>2036555</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>353</v>
       </c>
@@ -14616,7 +14631,7 @@
         <v>1863419</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>338</v>
       </c>
@@ -14648,7 +14663,7 @@
         <v>3317548</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>338</v>
       </c>
@@ -14680,7 +14695,7 @@
         <v>2249468</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>338</v>
       </c>
@@ -14712,7 +14727,7 @@
         <v>2076515</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>338</v>
       </c>
@@ -14744,7 +14759,7 @@
         <v>2403722</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>338</v>
       </c>
@@ -14776,7 +14791,7 @@
         <v>2147463</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>338</v>
       </c>
@@ -14808,7 +14823,7 @@
         <v>2345119</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>353</v>
       </c>
@@ -14840,7 +14855,7 @@
         <v>2856903</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>353</v>
       </c>
@@ -14872,7 +14887,7 @@
         <v>1735092</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>338</v>
       </c>
@@ -14904,7 +14919,7 @@
         <v>1322141</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>338</v>
       </c>
@@ -14936,7 +14951,7 @@
         <v>1938714</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -14968,7 +14983,7 @@
         <v>3920142</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -15000,7 +15015,7 @@
         <v>1846414</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -15032,7 +15047,7 @@
         <v>2808285</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -15064,7 +15079,7 @@
         <v>3812998</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>175</v>
       </c>
@@ -15096,7 +15111,7 @@
         <v>2534460</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>175</v>
       </c>
@@ -15128,7 +15143,7 @@
         <v>2761983</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>353</v>
       </c>
@@ -15160,7 +15175,7 @@
         <v>3668475</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>353</v>
       </c>
@@ -15192,7 +15207,7 @@
         <v>3135246</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>353</v>
       </c>
@@ -15224,7 +15239,7 @@
         <v>4336269</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>353</v>
       </c>
@@ -15256,7 +15271,7 @@
         <v>3450511</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>353</v>
       </c>
@@ -15288,7 +15303,7 @@
         <v>4713848</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -15320,7 +15335,7 @@
         <v>3161327</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>423</v>
       </c>
@@ -15352,7 +15367,7 @@
         <v>4545423</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>423</v>
       </c>
@@ -15384,7 +15399,7 @@
         <v>3777511</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>423</v>
       </c>
@@ -15416,7 +15431,7 @@
         <v>2385998</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>423</v>
       </c>
@@ -15448,7 +15463,7 @@
         <v>2429916</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>423</v>
       </c>
@@ -15480,7 +15495,7 @@
         <v>2946638</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>423</v>
       </c>
@@ -15512,7 +15527,7 @@
         <v>4526574</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>423</v>
       </c>
@@ -15544,7 +15559,7 @@
         <v>4875572</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -15576,7 +15591,7 @@
         <v>4855514</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>112</v>
       </c>
@@ -15608,7 +15623,7 @@
         <v>3686963</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>112</v>
       </c>
